--- a/SPPSApi/Doc/Template/FS0503.xlsx
+++ b/SPPSApi/Doc/Template/FS0503.xlsx
@@ -8,7 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="注意" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
@@ -16,41 +16,61 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+  <si>
+    <t>收容数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>箱最大收容数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>箱种</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长(mm)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宽(mm)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高(mm)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空箱重量(g)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单品净重(g)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">注意：包装工厂  跟检索列表页面的一样 例如TFTM </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收货方：跟检索页面的一样</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
   <si>
     <t>品番</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>收容数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>箱最大收容数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>箱种</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>长(mm)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>宽(mm)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高(mm)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>空箱重量(g)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单品净重(g)</t>
+    <t>收货方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>包装工厂</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -398,7 +418,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:L1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -406,56 +426,82 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.7265625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14.36328125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="8.7265625" style="1"/>
-    <col min="8" max="9" width="12.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.1796875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.36328125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.54296875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.36328125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="8.7265625" style="1"/>
+    <col min="11" max="12" width="12.453125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A3:A4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/SPPSApi/Doc/Template/FS0503.xlsx
+++ b/SPPSApi/Doc/Template/FS0503.xlsx
@@ -70,7 +70,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>包装工厂</t>
+    <t>包装工场</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -421,7 +421,7 @@
   <dimension ref="A1:L1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
